--- a/Team-Data/2008-09/1-6-2008-09.xlsx
+++ b/Team-Data/2008-09/1-6-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
@@ -753,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -774,22 +841,22 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>25</v>
       </c>
-      <c r="AP2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>26</v>
-      </c>
       <c r="AR2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>18</v>
@@ -804,7 +871,7 @@
         <v>24</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -813,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -851,97 +918,97 @@
         <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.829</v>
       </c>
       <c r="H3" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
-        <v>76.3</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O3" t="n">
         <v>21.6</v>
       </c>
       <c r="P3" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S3" t="n">
         <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
         <v>22</v>
       </c>
       <c r="V3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W3" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
         <v>12</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -953,7 +1020,7 @@
         <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>14</v>
@@ -962,13 +1029,13 @@
         <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -998,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.371</v>
+        <v>0.353</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J4" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M4" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O4" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T4" t="n">
         <v>39.1</v>
       </c>
       <c r="U4" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V4" t="n">
         <v>15.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.7</v>
@@ -1096,22 +1163,22 @@
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
         <v>22</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
@@ -1120,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,61 +1196,61 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV4" t="n">
         <v>23</v>
       </c>
-      <c r="AR4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>24</v>
-      </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1294,34 @@
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.439</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
         <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.385</v>
       </c>
       <c r="O5" t="n">
         <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.801</v>
+        <v>0.794</v>
       </c>
       <c r="R5" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
         <v>30.3</v>
@@ -1263,46 +1330,46 @@
         <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
         <v>22.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>10</v>
@@ -1311,28 +1378,28 @@
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1341,13 +1408,13 @@
         <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1359,10 +1426,10 @@
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -1394,94 +1461,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.844</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J6" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.477</v>
+        <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>42</v>
       </c>
       <c r="U6" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
@@ -1490,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
@@ -1499,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
         <v>20</v>
@@ -1508,10 +1575,10 @@
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
         <v>15</v>
@@ -1523,25 +1590,25 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -1576,100 +1643,100 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.618</v>
+        <v>0.606</v>
       </c>
       <c r="H7" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O7" t="n">
         <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.806</v>
+        <v>0.804</v>
       </c>
       <c r="R7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S7" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T7" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X7" t="n">
         <v>5.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1678,10 +1745,10 @@
         <v>16</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
         <v>23</v>
@@ -1693,7 +1760,7 @@
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="n">
         <v>11</v>
@@ -1705,19 +1772,19 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
         <v>8</v>
       </c>
-      <c r="AV7" t="n">
-        <v>7</v>
-      </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1726,10 +1793,10 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1912,7 @@
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>26</v>
@@ -1860,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2030,31 +2097,31 @@
         <v>9</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM9" t="n">
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>18</v>
@@ -2063,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT9" t="n">
         <v>20</v>
@@ -2075,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2087,13 +2154,13 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -2206,13 +2273,13 @@
         <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG10" t="n">
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,13 +2288,13 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>18</v>
       </c>
       <c r="AM10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
         <v>21</v>
@@ -2245,13 +2312,13 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>20</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.583</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J11" t="n">
         <v>79.3</v>
@@ -2328,40 +2395,40 @@
         <v>0.437</v>
       </c>
       <c r="L11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M11" t="n">
         <v>19.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P11" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
         <v>42.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X11" t="n">
         <v>3.6</v>
@@ -2370,31 +2437,31 @@
         <v>5.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
         <v>21.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2412,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>7</v>
@@ -2424,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>5</v>
@@ -2433,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
@@ -2451,13 +2518,13 @@
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>3</v>
@@ -2588,16 +2655,16 @@
         <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
@@ -2612,19 +2679,19 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2633,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.235</v>
+        <v>0.242</v>
       </c>
       <c r="H13" t="n">
         <v>48.9</v>
       </c>
       <c r="I13" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K13" t="n">
         <v>0.423</v>
@@ -2698,37 +2765,37 @@
         <v>16.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.311</v>
+        <v>0.308</v>
       </c>
       <c r="O13" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="P13" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T13" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U13" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y13" t="n">
         <v>5.6</v>
@@ -2737,25 +2804,25 @@
         <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG13" t="n">
         <v>26</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>27</v>
       </c>
       <c r="AH13" t="n">
         <v>1</v>
@@ -2764,28 +2831,28 @@
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -2853,13 +2920,13 @@
         <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.844</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2868,16 +2935,16 @@
         <v>39.5</v>
       </c>
       <c r="J14" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
         <v>0.374</v>
@@ -2886,58 +2953,58 @@
         <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.1</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.5</v>
+        <v>107.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -2946,37 +3013,37 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>7</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2988,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.314</v>
+        <v>0.324</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J15" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
         <v>14.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.327</v>
+        <v>0.332</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
         <v>25.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
         <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T15" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="U15" t="n">
         <v>16.9</v>
       </c>
       <c r="V15" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W15" t="n">
         <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
         <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3140,22 +3207,22 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>14</v>
@@ -3173,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -3292,22 +3359,22 @@
         <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3316,7 +3383,7 @@
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM16" t="n">
         <v>9</v>
@@ -3325,16 +3392,16 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
         <v>21</v>
@@ -3343,7 +3410,7 @@
         <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3355,16 +3422,16 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ16" t="n">
         <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.486</v>
+        <v>0.472</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,43 +3481,43 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L17" t="n">
         <v>5.1</v>
       </c>
       <c r="M17" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="T17" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="U17" t="n">
         <v>20.7</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,43 +3529,43 @@
         <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>24</v>
@@ -3510,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>10</v>
@@ -3522,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU17" t="n">
         <v>13</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.265</v>
+        <v>0.242</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,55 +3663,55 @@
         <v>36.1</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P18" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R18" t="n">
         <v>12.2</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
         <v>20.2</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X18" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
         <v>6.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA18" t="n">
         <v>21</v>
@@ -3653,10 +3720,10 @@
         <v>96.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5.6</v>
+        <v>-6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -3671,7 +3738,7 @@
         <v>5</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3680,19 +3747,19 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
         <v>25</v>
       </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ18" t="n">
         <v>16</v>
@@ -3701,7 +3768,7 @@
         <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>15</v>
@@ -3710,28 +3777,28 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3856,19 +3923,19 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>6</v>
@@ -3880,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>19</v>
@@ -3895,7 +3962,7 @@
         <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0.677</v>
+        <v>0.667</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J20" t="n">
         <v>76.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.803</v>
       </c>
       <c r="R20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="T20" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U20" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V20" t="n">
         <v>13.2</v>
@@ -4002,34 +4069,34 @@
         <v>7.8</v>
       </c>
       <c r="X20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z20" t="n">
         <v>21.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4053,13 +4120,13 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4068,31 +4135,31 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
         <v>12</v>
       </c>
       <c r="BB20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -4124,100 +4191,100 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.394</v>
+        <v>0.406</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J21" t="n">
-        <v>86.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O21" t="n">
         <v>18.1</v>
       </c>
       <c r="P21" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.801</v>
+        <v>0.798</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="U21" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="V21" t="n">
         <v>15.5</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG21" t="n">
         <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>103.9</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4232,40 +4299,40 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
       </c>
       <c r="AS21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT21" t="n">
         <v>8</v>
       </c>
-      <c r="AT21" t="n">
-        <v>9</v>
-      </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.143</v>
+        <v>0.118</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J22" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O22" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P22" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R22" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S22" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T22" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U22" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V22" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>94.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-7.9</v>
+        <v>-8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4399,13 +4466,13 @@
         <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4414,49 +4481,49 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="n">
         <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT22" t="n">
         <v>16</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>16</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" t="n">
         <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.771</v>
+        <v>0.765</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>9.9</v>
@@ -4521,55 +4588,55 @@
         <v>0.381</v>
       </c>
       <c r="O23" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P23" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.713</v>
+        <v>0.71</v>
       </c>
       <c r="R23" t="n">
         <v>10.2</v>
       </c>
       <c r="S23" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
         <v>19.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
         <v>6.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="AC23" t="n">
         <v>7.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4581,13 +4648,13 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>8</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4623,10 +4690,10 @@
         <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY23" t="n">
         <v>4</v>
@@ -4635,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -4670,103 +4737,103 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.412</v>
+        <v>0.394</v>
       </c>
       <c r="H24" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J24" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.451</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
         <v>3.6</v>
       </c>
       <c r="M24" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.295</v>
+        <v>0.294</v>
       </c>
       <c r="O24" t="n">
         <v>18.2</v>
       </c>
       <c r="P24" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.735</v>
+        <v>0.743</v>
       </c>
       <c r="R24" t="n">
         <v>12.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
         <v>43.3</v>
       </c>
       <c r="U24" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V24" t="n">
         <v>15.6</v>
       </c>
       <c r="W24" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>17</v>
@@ -4781,34 +4848,34 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
       </c>
       <c r="AV24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4817,10 +4884,10 @@
         <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -4939,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
@@ -4969,7 +5036,7 @@
         <v>6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
         <v>28</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
         <v>11</v>
@@ -4996,10 +5063,10 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.606</v>
+        <v>0.588</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.455</v>
       </c>
       <c r="L26" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O26" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF26" t="n">
         <v>12</v>
       </c>
-      <c r="AF26" t="n">
-        <v>11</v>
-      </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5142,13 +5209,13 @@
         <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>11</v>
@@ -5163,31 +5230,31 @@
         <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV26" t="n">
         <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB26" t="n">
         <v>15</v>
       </c>
-      <c r="BA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>14</v>
-      </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" t="n">
-        <v>0.222</v>
+        <v>0.229</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,46 +5301,46 @@
         <v>35.9</v>
       </c>
       <c r="J27" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L27" t="n">
         <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.321</v>
+        <v>0.323</v>
       </c>
       <c r="O27" t="n">
         <v>18.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.792</v>
       </c>
       <c r="R27" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="S27" t="n">
         <v>28.9</v>
       </c>
       <c r="T27" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X27" t="n">
         <v>4.3</v>
@@ -5282,22 +5349,22 @@
         <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>29</v>
@@ -5306,16 +5373,16 @@
         <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
@@ -5327,7 +5394,7 @@
         <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
         <v>19</v>
@@ -5336,7 +5403,7 @@
         <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS27" t="n">
         <v>26</v>
@@ -5345,10 +5412,10 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV27" t="n">
         <v>24</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>26</v>
       </c>
       <c r="AW27" t="n">
         <v>23</v>
@@ -5357,13 +5424,13 @@
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5485,13 +5552,13 @@
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,13 +5582,13 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>25</v>
@@ -5551,7 +5618,7 @@
         <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>18</v>
@@ -5670,10 +5737,10 @@
         <v>20</v>
       </c>
       <c r="AH29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
@@ -5682,16 +5749,16 @@
         <v>13</v>
       </c>
       <c r="AL29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
         <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5703,16 +5770,16 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5879,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>6</v>
@@ -5894,25 +5961,25 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY30" t="n">
         <v>16</v>
       </c>
-      <c r="AY30" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>0.212</v>
+        <v>0.219</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J31" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L31" t="n">
         <v>5.1</v>
       </c>
       <c r="M31" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.304</v>
+        <v>0.305</v>
       </c>
       <c r="O31" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="P31" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="Q31" t="n">
         <v>0.75</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T31" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V31" t="n">
         <v>13.4</v>
@@ -6004,31 +6071,31 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y31" t="n">
         <v>5.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6043,25 +6110,25 @@
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
@@ -6070,28 +6137,28 @@
         <v>27</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV31" t="n">
         <v>10</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-6-2008-09</t>
+          <t>2009-01-06</t>
         </is>
       </c>
     </row>
